--- a/TNR_PREJDD/PREJDD.TR.BTR.xlsx
+++ b/TNR_PREJDD/PREJDD.TR.BTR.xlsx
@@ -767,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -869,6 +869,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -3191,14 +3197,14 @@
       <c r="DA3" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="DB3" s="20" t="s">
-        <v>139</v>
+      <c r="DB3" s="38" t="s">
+        <v>121</v>
       </c>
       <c r="DC3" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="DD3" s="31" t="s">
-        <v>137</v>
+      <c r="DD3" s="39" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -3242,10 +3248,10 @@
       <c r="M4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="40">
         <v>1002.0</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4" s="40">
         <v>2002.0</v>
       </c>
       <c r="P4" s="22" t="s">
@@ -5300,16 +5306,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="43" t="s">
         <v>175</v>
       </c>
       <c r="E1" s="13"/>
@@ -5339,7 +5345,7 @@
       <c r="A2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="44">
         <v>1000.0</v>
       </c>
       <c r="C2" s="32" t="s">
@@ -5353,7 +5359,7 @@
       <c r="A3" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="44">
         <v>2000.0</v>
       </c>
       <c r="C3" s="32" t="s">
@@ -5367,7 +5373,7 @@
       <c r="A4" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="44">
         <v>1001.0</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -5381,7 +5387,7 @@
       <c r="A5" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="44">
         <v>2001.0</v>
       </c>
       <c r="C5" s="32" t="s">
@@ -5395,7 +5401,7 @@
       <c r="A6" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="44">
         <v>1002.0</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -5409,7 +5415,7 @@
       <c r="A7" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="44">
         <v>2002.0</v>
       </c>
       <c r="C7" s="32" t="s">
@@ -8415,28 +8421,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="43" t="s">
         <v>188</v>
       </c>
       <c r="I1" s="13"/>
@@ -8459,25 +8465,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="45"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="45"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="43"/>
+      <c r="A7" s="45"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="45"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
@@ -11507,25 +11513,25 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="45"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="45"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="43"/>
+      <c r="A7" s="45"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="45"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
